--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H2">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I2">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J2">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N2">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O2">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P2">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q2">
-        <v>19.69872560573967</v>
+        <v>9.281091307486447</v>
       </c>
       <c r="R2">
-        <v>177.288530451657</v>
+        <v>83.52982176737801</v>
       </c>
       <c r="S2">
-        <v>0.08441845130811566</v>
+        <v>0.0535142627250166</v>
       </c>
       <c r="T2">
-        <v>0.1069828972082499</v>
+        <v>0.07018790586372407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H3">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I3">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J3">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.047822</v>
       </c>
       <c r="O3">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P3">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q3">
-        <v>1.041162586987333</v>
+        <v>0.9169175293542224</v>
       </c>
       <c r="R3">
-        <v>9.370463282886002</v>
+        <v>8.252257764188002</v>
       </c>
       <c r="S3">
-        <v>0.004461879154650098</v>
+        <v>0.005286896113548082</v>
       </c>
       <c r="T3">
-        <v>0.005654507415864835</v>
+        <v>0.006934154519436787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H4">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I4">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J4">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N4">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O4">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P4">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q4">
-        <v>20.841387502261</v>
+        <v>21.51306872257467</v>
       </c>
       <c r="R4">
-        <v>125.048325013566</v>
+        <v>129.078412335448</v>
       </c>
       <c r="S4">
-        <v>0.08931530350067673</v>
+        <v>0.1240431726722218</v>
       </c>
       <c r="T4">
-        <v>0.07545909522126745</v>
+        <v>0.108461185027664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I5">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J5">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N5">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O5">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P5">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q5">
-        <v>73.28852264800624</v>
+        <v>39.20894529821422</v>
       </c>
       <c r="R5">
-        <v>659.5967038320561</v>
+        <v>352.880507683928</v>
       </c>
       <c r="S5">
-        <v>0.3140763369383526</v>
+        <v>0.2260766250803857</v>
       </c>
       <c r="T5">
-        <v>0.3980266866965042</v>
+        <v>0.2965161822497226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I6">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J6">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.047822</v>
       </c>
       <c r="O6">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P6">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q6">
         <v>3.873614433943112</v>
@@ -824,10 +824,10 @@
         <v>34.862529905488</v>
       </c>
       <c r="S6">
-        <v>0.01660028866958584</v>
+        <v>0.02233504807201261</v>
       </c>
       <c r="T6">
-        <v>0.02103742663891827</v>
+        <v>0.02929406426835318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I7">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J7">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N7">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O7">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P7">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q7">
-        <v>77.53976224382134</v>
+        <v>90.88421897754132</v>
       </c>
       <c r="R7">
-        <v>465.2385734629281</v>
+        <v>545.305313865248</v>
       </c>
       <c r="S7">
-        <v>0.3322949298565606</v>
+        <v>0.5240334149066003</v>
       </c>
       <c r="T7">
-        <v>0.2807433191267228</v>
+        <v>0.4582056710614234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1029616666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.308885</v>
+      </c>
+      <c r="I8">
+        <v>0.000327290402255814</v>
+      </c>
+      <c r="J8">
+        <v>0.0003321930438891683</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.2323533333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.69706</v>
-      </c>
-      <c r="I8">
-        <v>0.0006339191810828563</v>
-      </c>
-      <c r="J8">
-        <v>0.0006691408565655344</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N8">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O8">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P8">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q8">
-        <v>0.07007691337111112</v>
+        <v>0.01661310516055556</v>
       </c>
       <c r="R8">
-        <v>0.6306922203400001</v>
+        <v>0.149517946445</v>
       </c>
       <c r="S8">
-        <v>0.0003003130566740056</v>
+        <v>9.579025189884411E-05</v>
       </c>
       <c r="T8">
-        <v>0.0003805845804394872</v>
+        <v>0.0001256359863815428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H9">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I9">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J9">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.047822</v>
       </c>
       <c r="O9">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P9">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q9">
-        <v>0.003703867035555556</v>
+        <v>0.001641277607777778</v>
       </c>
       <c r="R9">
-        <v>0.03333480332</v>
+        <v>0.01477149847</v>
       </c>
       <c r="S9">
-        <v>1.587283996187431E-05</v>
+        <v>9.463516541040671E-06</v>
       </c>
       <c r="T9">
-        <v>2.011553611480374E-05</v>
+        <v>1.241210051861277E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H10">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I10">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J10">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N10">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O10">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P10">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q10">
-        <v>0.07414185748666667</v>
+        <v>0.03850828110333333</v>
       </c>
       <c r="R10">
-        <v>0.4448511449200001</v>
+        <v>0.23104968662</v>
       </c>
       <c r="S10">
-        <v>0.0003177332844469764</v>
+        <v>0.0002220366338159292</v>
       </c>
       <c r="T10">
-        <v>0.0002684407400112433</v>
+        <v>0.0001941449569890128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H11">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I11">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J11">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N11">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O11">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P11">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q11">
-        <v>17.45640421803067</v>
+        <v>2.247389843444667</v>
       </c>
       <c r="R11">
-        <v>104.738425308184</v>
+        <v>13.484339060668</v>
       </c>
       <c r="S11">
-        <v>0.07480903277647707</v>
+        <v>0.0129583264018338</v>
       </c>
       <c r="T11">
-        <v>0.06320330006658186</v>
+        <v>0.01133053441991574</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H12">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I12">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J12">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.047822</v>
       </c>
       <c r="O12">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P12">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q12">
-        <v>0.9226462330053335</v>
+        <v>0.2220289699213334</v>
       </c>
       <c r="R12">
-        <v>5.535877398032</v>
+        <v>1.332173819528</v>
       </c>
       <c r="S12">
-        <v>0.003953979950504136</v>
+        <v>0.001280206845864219</v>
       </c>
       <c r="T12">
-        <v>0.003340566934151584</v>
+        <v>0.001119390520185041</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H13">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I13">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J13">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N13">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O13">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P13">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q13">
-        <v>18.468996014548</v>
+        <v>5.209328358771999</v>
       </c>
       <c r="R13">
-        <v>73.875984058192</v>
+        <v>20.837313435088</v>
       </c>
       <c r="S13">
-        <v>0.07914847244278669</v>
+        <v>0.03003670119992636</v>
       </c>
       <c r="T13">
-        <v>0.04457968481390837</v>
+        <v>0.01750904482841898</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.033993</v>
+      </c>
+      <c r="H14">
+        <v>0.101979</v>
+      </c>
+      <c r="I14">
+        <v>0.0001080555803345765</v>
+      </c>
+      <c r="J14">
+        <v>0.0001096741972668582</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.1053443333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.316033</v>
-      </c>
-      <c r="I14">
-        <v>0.0002874062212078707</v>
-      </c>
-      <c r="J14">
-        <v>0.0003033750212649923</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N14">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O14">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P14">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q14">
-        <v>0.03177146467077778</v>
+        <v>0.005484849867000001</v>
       </c>
       <c r="R14">
-        <v>0.285943182037</v>
+        <v>0.049363648803</v>
       </c>
       <c r="S14">
-        <v>0.0001361559065788541</v>
+        <v>3.162534308364674E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001725494027917718</v>
+        <v>4.147897196433414E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H15">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I15">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J15">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.047822</v>
       </c>
       <c r="O15">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P15">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q15">
-        <v>0.001679258902888889</v>
+        <v>0.0005418710820000001</v>
       </c>
       <c r="R15">
-        <v>0.015113330126</v>
+        <v>0.004876839738000001</v>
       </c>
       <c r="S15">
-        <v>7.196426751887965E-06</v>
+        <v>3.124398897126071E-06</v>
       </c>
       <c r="T15">
-        <v>9.119979951467263E-06</v>
+        <v>4.097879789525587E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H16">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I16">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J16">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N16">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O16">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P16">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q16">
-        <v>0.03361442866766667</v>
+        <v>0.012713585958</v>
       </c>
       <c r="R16">
-        <v>0.201686572006</v>
+        <v>0.07628151574799999</v>
       </c>
       <c r="S16">
-        <v>0.0001440538878771287</v>
+        <v>7.330583835380367E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001217056385217532</v>
+        <v>6.409734551299847E-05</v>
       </c>
     </row>
   </sheetData>
